--- a/TP3-Polinomio/graficoYComplejidad.xlsx
+++ b/TP3-Polinomio/graficoYComplejidad.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laboratorios\Desktop\PrograKikeFede\ProgramacionAvanzada\TP3-Polinomio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lautaro\workspace\PrograAvanzada\repoFede\ProgramacionAvanzada\TP3-Polinomio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Polinomio" sheetId="1" r:id="rId1"/>
     <sheet name="Complejidad" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>N</t>
   </si>
@@ -73,6 +74,33 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>crearTrianguloDePascal</t>
+  </si>
+  <si>
+    <t>combinatoriaRecursiva</t>
+  </si>
+  <si>
+    <t>n!</t>
+  </si>
+  <si>
+    <t>combinatoriaNoRecur</t>
+  </si>
+  <si>
+    <t>obtenerCoeficienteDelTerminoK</t>
+  </si>
+  <si>
+    <t>obtenerCoeficienteDelTerminoKMejorado</t>
+  </si>
+  <si>
+    <t>desarrollar</t>
+  </si>
+  <si>
+    <t>n*n!</t>
+  </si>
+  <si>
+    <t>desarrollarMejorado</t>
   </si>
 </sst>
 </file>
@@ -124,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -132,6 +160,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,7 +860,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1309975952"/>
@@ -891,7 +922,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1309989264"/>
@@ -934,7 +965,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -964,7 +995,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1571,7 +1602,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
@@ -1625,8 +1656,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="180627" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2"/>
@@ -1662,6 +1693,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1701,7 +1733,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2"/>
@@ -1759,8 +1791,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="180627" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CuadroTexto 3"/>
@@ -1796,6 +1828,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1835,7 +1868,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CuadroTexto 3"/>
@@ -1893,8 +1926,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="428514" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4"/>
@@ -1930,6 +1963,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1978,7 +2012,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4"/>
@@ -2019,6 +2053,478 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝑛 log⁡𝑛</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-AR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="CuadroTexto 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6362700" y="209550"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="CuadroTexto 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6362700" y="400050"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="295275" cy="257175"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="CuadroTexto 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6257925" y="590550"/>
+          <a:ext cx="295275" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="180627" cy="175369"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="CuadroTexto 14"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1638300" y="209550"/>
+              <a:ext cx="180627" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-AR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="CuadroTexto 14"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1638300" y="209550"/>
+              <a:ext cx="180627" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛^2</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-AR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="CuadroTexto 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7305675" y="209550"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="180627" cy="175369"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="CuadroTexto 16"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7620000" y="209550"/>
+              <a:ext cx="180627" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-AR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="CuadroTexto 16"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7620000" y="209550"/>
+              <a:ext cx="180627" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛^2</a:t>
               </a:r>
               <a:endParaRPr lang="es-AR" sz="1100"/>
             </a:p>
@@ -2478,58 +2984,93 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -2537,9 +3078,33 @@
         <v>15</v>
       </c>
       <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TP3-Polinomio/graficoYComplejidad.xlsx
+++ b/TP3-Polinomio/graficoYComplejidad.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Polinomio" sheetId="1" r:id="rId1"/>
     <sheet name="Complejidad" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
+    <sheet name="Binomio de Newton" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>N</t>
   </si>
@@ -102,6 +102,9 @@
   <si>
     <t>desarrollarMejorado</t>
   </si>
+  <si>
+    <t>K</t>
+  </si>
 </sst>
 </file>
 
@@ -132,15 +135,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -148,11 +169,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -163,6 +265,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1006,7 +1120,1073 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11724759405074366"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.87997462817147853"/>
+          <c:h val="0.60406313794109068"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Binomio de Newton'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>combinatoriaNoRecur</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Binomio de Newton'!$A$1:$B$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>500</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1500</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7500</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>K</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Binomio de Newton'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.189</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48299999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-85B5-489E-AB48-CBE0A883583B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Binomio de Newton'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>crearTrianguloDePascal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Binomio de Newton'!$A$1:$B$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>500</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1500</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7500</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>K</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Binomio de Newton'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-85B5-489E-AB48-CBE0A883583B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Binomio de Newton'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>combinatoriaRecursiva</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Binomio de Newton'!$A$1:$B$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>500</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1500</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7500</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>K</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Binomio de Newton'!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-85B5-489E-AB48-CBE0A883583B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Binomio de Newton'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>obtenerCoeficienteDelTerminoK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Binomio de Newton'!$A$1:$B$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>500</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1500</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7500</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>K</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Binomio de Newton'!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-85B5-489E-AB48-CBE0A883583B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Binomio de Newton'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>obtenerCoeficienteDelTerminoKMejorado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Binomio de Newton'!$A$1:$B$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>500</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1500</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7500</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>K</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Binomio de Newton'!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45400000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-85B5-489E-AB48-CBE0A883583B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Binomio de Newton'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>desarrollar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Binomio de Newton'!$A$1:$B$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>500</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1500</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7500</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>K</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Binomio de Newton'!$H$2:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-85B5-489E-AB48-CBE0A883583B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Binomio de Newton'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>desarrollarMejorado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Binomio de Newton'!$A$1:$B$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>500</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1500</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7500</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>K</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Binomio de Newton'!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.247</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46700000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-85B5-489E-AB48-CBE0A883583B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1747131920"/>
+        <c:axId val="1747126512"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1747131920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1747126512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1747126512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1747131920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1543,6 +2723,522 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2105,7 +3801,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
           <a:endParaRPr lang="es-AR" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2155,7 +3850,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
           <a:endParaRPr lang="es-AR" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2205,7 +3899,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
           <a:endParaRPr lang="es-AR" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2220,8 +3913,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="180627" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="CuadroTexto 14"/>
@@ -2297,7 +3990,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="CuadroTexto 14"/>
@@ -2391,7 +4084,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
           <a:endParaRPr lang="es-AR" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2406,8 +4098,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="180627" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="CuadroTexto 16"/>
@@ -2483,7 +4175,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="CuadroTexto 16"/>
@@ -2534,6 +4226,41 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2803,7 +4530,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G7" sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2986,8 +4713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3099,12 +4826,299 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8">
+        <v>500</v>
+      </c>
+      <c r="C2" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D2" s="10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E2" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2" s="10">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="H2" s="10">
+        <v>10</v>
+      </c>
+      <c r="I2" s="10">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1500</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E3" s="10">
+        <v>15</v>
+      </c>
+      <c r="F3" s="10">
+        <v>15</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H3" s="10">
+        <v>15</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3000</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.158</v>
+      </c>
+      <c r="D4" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>30</v>
+      </c>
+      <c r="F4" s="10">
+        <v>30</v>
+      </c>
+      <c r="G4" s="10">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H4" s="10">
+        <v>30</v>
+      </c>
+      <c r="I4" s="10">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9">
+        <v>5000</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.189</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="E5" s="10">
+        <v>45</v>
+      </c>
+      <c r="F5" s="10">
+        <v>45</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.153</v>
+      </c>
+      <c r="H5" s="10">
+        <v>45</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9">
+        <v>7500</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.51</v>
+      </c>
+      <c r="E6" s="10">
+        <v>150</v>
+      </c>
+      <c r="F6" s="10">
+        <v>150</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="H6" s="10">
+        <v>150</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>10</v>
+      </c>
+      <c r="B7" s="14">
+        <v>10000</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="E7" s="10">
+        <v>200</v>
+      </c>
+      <c r="F7" s="10">
+        <v>200</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="H7" s="10">
+        <v>200</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8">
+        <v>500</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>2</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>2</v>
+      </c>
+      <c r="B11" s="9">
+        <v>3000</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="9">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>2</v>
+      </c>
+      <c r="B13" s="9">
+        <v>7500</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>2</v>
+      </c>
+      <c r="B14" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.501</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>